--- a/docs/Store/templates/Analytics.xlsx
+++ b/docs/Store/templates/Analytics.xlsx
@@ -19,7 +19,7 @@
     <t>analytics</t>
   </si>
   <si>
-    <t>segments</t>
+    <t>analytics_segments_table</t>
   </si>
   <si>
     <t>Segment</t>
@@ -61,13 +61,13 @@
     <t>Insert Statement</t>
   </si>
   <si>
-    <t>business_areas</t>
+    <t>analytics_business_areas_table</t>
   </si>
   <si>
     <t>Business area</t>
   </si>
   <si>
-    <t>promotions</t>
+    <t>analytics_promotions_table</t>
   </si>
   <si>
     <t>Promotion</t>

--- a/docs/Store/templates/Analytics.xlsx
+++ b/docs/Store/templates/Analytics.xlsx
@@ -197,43 +197,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -325,43 +325,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -453,43 +453,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>

--- a/docs/Store/templates/Analytics.xlsx
+++ b/docs/Store/templates/Analytics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>analytics</t>
   </si>
@@ -28,33 +28,51 @@
     <t/>
   </si>
   <si>
+    <t>Segment Id</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>varchar(10), PK, NN</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>varchar(100), NN</t>
   </si>
   <si>
+    <t>User created record</t>
+  </si>
+  <si>
     <t>created_by</t>
   </si>
   <si>
     <t>varchar(10), NN</t>
   </si>
   <si>
+    <t>Timestamp of record create</t>
+  </si>
+  <si>
     <t>created_at</t>
   </si>
   <si>
     <t>timestamptz, NN</t>
   </si>
   <si>
+    <t>User updated record</t>
+  </si>
+  <si>
     <t>updated_by</t>
   </si>
   <si>
+    <t>Timestamp of record update</t>
+  </si>
+  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -67,10 +85,16 @@
     <t>Business area</t>
   </si>
   <si>
+    <t>Business Area Id</t>
+  </si>
+  <si>
     <t>analytics_promotions_table</t>
   </si>
   <si>
     <t>Promotion</t>
+  </si>
+  <si>
+    <t>Promotion Id</t>
   </si>
 </sst>
 </file>
@@ -115,7 +139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -152,7 +176,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -160,19 +184,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -180,60 +204,80 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -243,7 +287,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -254,10 +298,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -280,27 +324,27 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -308,60 +352,80 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -371,7 +435,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -382,10 +446,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -408,27 +472,27 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -436,60 +500,80 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
